--- a/08_MiscDocs/user_stories_long_term_effort_estimation.xlsx
+++ b/08_MiscDocs/user_stories_long_term_effort_estimation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\Schule\SYP\if.05.61_01-project-repository\08_MiscDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D818A-B83D-47E1-AEFC-56A49C6CB172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864B1A28-6AAC-43AE-883C-685CD8621D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FD58B51-89EC-47EC-B4DB-862D99256616}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>Simulation can run in realtime(performance!) changeable spead</t>
+  </si>
+  <si>
+    <t>modeller</t>
+  </si>
+  <si>
+    <t>As a modeller I want to compare my output to a reliable simulation, where I used similar parameters.</t>
+  </si>
+  <si>
+    <t>cloned other simulation from github, changed parameters and compared results</t>
   </si>
 </sst>
 </file>
@@ -112,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -122,6 +131,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,10 +547,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E6">
-        <f>SUM(E2:E5)</f>
-        <v>10</v>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/08_MiscDocs/user_stories_long_term_effort_estimation.xlsx
+++ b/08_MiscDocs/user_stories_long_term_effort_estimation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\Schule\SYP\if.05.61_01-project-repository\08_MiscDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864B1A28-6AAC-43AE-883C-685CD8621D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC86312-4DD6-4734-BD1C-E4D35672913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FD58B51-89EC-47EC-B4DB-862D99256616}"/>
   </bookViews>
@@ -452,14 +452,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="70" style="1" customWidth="1"/>
     <col min="4" max="4" width="49" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">

--- a/08_MiscDocs/user_stories_long_term_effort_estimation.xlsx
+++ b/08_MiscDocs/user_stories_long_term_effort_estimation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\Schule\SYP\if.05.61_01-project-repository\08_MiscDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\SYP\if.05.61_01-project-repository\08_MiscDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC86312-4DD6-4734-BD1C-E4D35672913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4744D0-9D97-4469-9CBE-4FA066D97675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FD58B51-89EC-47EC-B4DB-862D99256616}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5FD58B51-89EC-47EC-B4DB-862D99256616}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>cloned other simulation from github, changed parameters and compared results</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Left</t>
   </si>
 </sst>
 </file>
@@ -101,12 +110,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -133,6 +154,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -449,22 +479,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC889433-4709-4D85-9243-394F30539216}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="70" style="1" customWidth="1"/>
     <col min="4" max="4" width="49" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,24 +511,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -515,41 +545,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>7</v>
       </c>
@@ -564,6 +594,31 @@
       </c>
       <c r="E6" s="4">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E6)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
